--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H2">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I2">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J2">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.617499838027864</v>
+        <v>0.07648333333333333</v>
       </c>
       <c r="N2">
-        <v>0.617499838027864</v>
+        <v>0.22945</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.09982619061603352</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.09982619061603351</v>
       </c>
       <c r="Q2">
-        <v>4.207686192274025</v>
+        <v>0.5212520432166666</v>
       </c>
       <c r="R2">
-        <v>4.207686192274025</v>
+        <v>4.691268388949999</v>
       </c>
       <c r="S2">
-        <v>0.2476661926483412</v>
+        <v>0.0237430041454202</v>
       </c>
       <c r="T2">
-        <v>0.2476661926483412</v>
+        <v>0.02374300414542019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,119 +596,119 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.58296203432592</v>
+        <v>6.815237</v>
       </c>
       <c r="H3">
-        <v>2.58296203432592</v>
+        <v>20.445711</v>
       </c>
       <c r="I3">
-        <v>0.09388111863278091</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J3">
-        <v>0.09388111863278091</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617499838027864</v>
+        <v>0.6295780000000001</v>
       </c>
       <c r="N3">
-        <v>0.617499838027864</v>
+        <v>1.888734</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8217263905294552</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8217263905294551</v>
       </c>
       <c r="Q3">
-        <v>1.594978637828378</v>
+        <v>4.290723279986</v>
       </c>
       <c r="R3">
-        <v>1.594978637828378</v>
+        <v>38.616509519874</v>
       </c>
       <c r="S3">
-        <v>0.09388111863278091</v>
+        <v>0.1954422278997432</v>
       </c>
       <c r="T3">
-        <v>0.09388111863278091</v>
+        <v>0.1954422278997432</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.21565310663088</v>
+        <v>6.815237</v>
       </c>
       <c r="H4">
-        <v>5.21565310663088</v>
+        <v>20.445711</v>
       </c>
       <c r="I4">
-        <v>0.1895697039073325</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J4">
-        <v>0.1895697039073325</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.617499838027864</v>
+        <v>0.02458133333333333</v>
       </c>
       <c r="N4">
-        <v>0.617499838027864</v>
+        <v>0.073744</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.03208360253122151</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.03208360253122151</v>
       </c>
       <c r="Q4">
-        <v>3.220664948554094</v>
+        <v>0.1675276124426667</v>
       </c>
       <c r="R4">
-        <v>3.220664948554094</v>
+        <v>1.507748511984</v>
       </c>
       <c r="S4">
-        <v>0.1895697039073325</v>
+        <v>0.007630874254521103</v>
       </c>
       <c r="T4">
-        <v>0.1895697039073325</v>
+        <v>0.007630874254521103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,117 +717,1047 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.6777260783941</v>
+        <v>6.815237</v>
       </c>
       <c r="H5">
-        <v>12.6777260783941</v>
+        <v>20.445711</v>
       </c>
       <c r="I5">
-        <v>0.4607884630678379</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J5">
-        <v>0.4607884630678379</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.617499838027864</v>
+        <v>0.03552233333333333</v>
       </c>
       <c r="N5">
-        <v>0.617499838027864</v>
+        <v>0.106567</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.04636381632328979</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.04636381632328979</v>
       </c>
       <c r="Q5">
-        <v>7.828493799969984</v>
+        <v>0.2420931204596666</v>
       </c>
       <c r="R5">
-        <v>7.828493799969984</v>
+        <v>2.178838084137</v>
       </c>
       <c r="S5">
-        <v>0.4607884630678379</v>
+        <v>0.0110273293648507</v>
       </c>
       <c r="T5">
-        <v>0.4607884630678379</v>
+        <v>0.0110273293648507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.660570666666667</v>
+      </c>
+      <c r="H6">
+        <v>7.981712</v>
+      </c>
+      <c r="I6">
+        <v>0.09285066215427033</v>
+      </c>
+      <c r="J6">
+        <v>0.09285066215427033</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.07648333333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.22945</v>
+      </c>
+      <c r="O6">
+        <v>0.09982619061603352</v>
+      </c>
+      <c r="P6">
+        <v>0.09982619061603351</v>
+      </c>
+      <c r="Q6">
+        <v>0.2034893131555555</v>
+      </c>
+      <c r="R6">
+        <v>1.8314038184</v>
+      </c>
+      <c r="S6">
+        <v>0.009268927899037121</v>
+      </c>
+      <c r="T6">
+        <v>0.009268927899037119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.660570666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.981712</v>
+      </c>
+      <c r="I7">
+        <v>0.09285066215427033</v>
+      </c>
+      <c r="J7">
+        <v>0.09285066215427033</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6295780000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.888734</v>
+      </c>
+      <c r="O7">
+        <v>0.8217263905294552</v>
+      </c>
+      <c r="P7">
+        <v>0.8217263905294551</v>
+      </c>
+      <c r="Q7">
+        <v>1.675036759178667</v>
+      </c>
+      <c r="R7">
+        <v>15.075330832608</v>
+      </c>
+      <c r="S7">
+        <v>0.07629783947029845</v>
+      </c>
+      <c r="T7">
+        <v>0.07629783947029843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.660570666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.981712</v>
+      </c>
+      <c r="I8">
+        <v>0.09285066215427033</v>
+      </c>
+      <c r="J8">
+        <v>0.09285066215427033</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02458133333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.073744</v>
+      </c>
+      <c r="O8">
+        <v>0.03208360253122151</v>
+      </c>
+      <c r="P8">
+        <v>0.03208360253122151</v>
+      </c>
+      <c r="Q8">
+        <v>0.06540037441422222</v>
+      </c>
+      <c r="R8">
+        <v>0.588603369728</v>
+      </c>
+      <c r="S8">
+        <v>0.002978983739318341</v>
+      </c>
+      <c r="T8">
+        <v>0.002978983739318341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.660570666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.981712</v>
+      </c>
+      <c r="I9">
+        <v>0.09285066215427033</v>
+      </c>
+      <c r="J9">
+        <v>0.09285066215427033</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03552233333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.106567</v>
+      </c>
+      <c r="O9">
+        <v>0.04636381632328979</v>
+      </c>
+      <c r="P9">
+        <v>0.04636381632328979</v>
+      </c>
+      <c r="Q9">
+        <v>0.09450967807822221</v>
+      </c>
+      <c r="R9">
+        <v>0.850587102704</v>
+      </c>
+      <c r="S9">
+        <v>0.004304911045616425</v>
+      </c>
+      <c r="T9">
+        <v>0.004304911045616425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.265451333333334</v>
+      </c>
+      <c r="H10">
+        <v>15.796354</v>
+      </c>
+      <c r="I10">
+        <v>0.1837578114223185</v>
+      </c>
+      <c r="J10">
+        <v>0.1837578114223185</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.07648333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.22945</v>
+      </c>
+      <c r="O10">
+        <v>0.09982619061603352</v>
+      </c>
+      <c r="P10">
+        <v>0.09982619061603351</v>
+      </c>
+      <c r="Q10">
+        <v>0.4027192694777778</v>
+      </c>
+      <c r="R10">
+        <v>3.6244734253</v>
+      </c>
+      <c r="S10">
+        <v>0.01834384231022951</v>
+      </c>
+      <c r="T10">
+        <v>0.01834384231022951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.222705509419881</v>
-      </c>
-      <c r="H6">
-        <v>0.222705509419881</v>
-      </c>
-      <c r="I6">
-        <v>0.00809452174370736</v>
-      </c>
-      <c r="J6">
-        <v>0.00809452174370736</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.617499838027864</v>
-      </c>
-      <c r="N6">
-        <v>0.617499838027864</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.1375206159946895</v>
-      </c>
-      <c r="R6">
-        <v>0.1375206159946895</v>
-      </c>
-      <c r="S6">
-        <v>0.00809452174370736</v>
-      </c>
-      <c r="T6">
-        <v>0.00809452174370736</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.265451333333334</v>
+      </c>
+      <c r="H11">
+        <v>15.796354</v>
+      </c>
+      <c r="I11">
+        <v>0.1837578114223185</v>
+      </c>
+      <c r="J11">
+        <v>0.1837578114223185</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6295780000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.888734</v>
+      </c>
+      <c r="O11">
+        <v>0.8217263905294552</v>
+      </c>
+      <c r="P11">
+        <v>0.8217263905294551</v>
+      </c>
+      <c r="Q11">
+        <v>3.315012319537334</v>
+      </c>
+      <c r="R11">
+        <v>29.835110875836</v>
+      </c>
+      <c r="S11">
+        <v>0.1509986431116541</v>
+      </c>
+      <c r="T11">
+        <v>0.1509986431116541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.265451333333334</v>
+      </c>
+      <c r="H12">
+        <v>15.796354</v>
+      </c>
+      <c r="I12">
+        <v>0.1837578114223185</v>
+      </c>
+      <c r="J12">
+        <v>0.1837578114223185</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02458133333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.073744</v>
+      </c>
+      <c r="O12">
+        <v>0.03208360253122151</v>
+      </c>
+      <c r="P12">
+        <v>0.03208360253122151</v>
+      </c>
+      <c r="Q12">
+        <v>0.1294318143751111</v>
+      </c>
+      <c r="R12">
+        <v>1.164886329376</v>
+      </c>
+      <c r="S12">
+        <v>0.005895612583680825</v>
+      </c>
+      <c r="T12">
+        <v>0.005895612583680824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.265451333333334</v>
+      </c>
+      <c r="H13">
+        <v>15.796354</v>
+      </c>
+      <c r="I13">
+        <v>0.1837578114223185</v>
+      </c>
+      <c r="J13">
+        <v>0.1837578114223185</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03552233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.106567</v>
+      </c>
+      <c r="O13">
+        <v>0.04636381632328979</v>
+      </c>
+      <c r="P13">
+        <v>0.04636381632328979</v>
+      </c>
+      <c r="Q13">
+        <v>0.1870411174131111</v>
+      </c>
+      <c r="R13">
+        <v>1.683370056718</v>
+      </c>
+      <c r="S13">
+        <v>0.0085197134167541</v>
+      </c>
+      <c r="T13">
+        <v>0.008519713416754098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.66654266666667</v>
+      </c>
+      <c r="H14">
+        <v>40.999628</v>
+      </c>
+      <c r="I14">
+        <v>0.4769456236805791</v>
+      </c>
+      <c r="J14">
+        <v>0.4769456236805791</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.07648333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.22945</v>
+      </c>
+      <c r="O14">
+        <v>0.09982619061603352</v>
+      </c>
+      <c r="P14">
+        <v>0.09982619061603351</v>
+      </c>
+      <c r="Q14">
+        <v>1.045262738288889</v>
+      </c>
+      <c r="R14">
+        <v>9.407364644599999</v>
+      </c>
+      <c r="S14">
+        <v>0.04761166474302048</v>
+      </c>
+      <c r="T14">
+        <v>0.04761166474302048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.66654266666667</v>
+      </c>
+      <c r="H15">
+        <v>40.999628</v>
+      </c>
+      <c r="I15">
+        <v>0.4769456236805791</v>
+      </c>
+      <c r="J15">
+        <v>0.4769456236805791</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6295780000000001</v>
+      </c>
+      <c r="N15">
+        <v>1.888734</v>
+      </c>
+      <c r="O15">
+        <v>0.8217263905294552</v>
+      </c>
+      <c r="P15">
+        <v>0.8217263905294551</v>
+      </c>
+      <c r="Q15">
+        <v>8.604154598994668</v>
+      </c>
+      <c r="R15">
+        <v>77.437391390952</v>
+      </c>
+      <c r="S15">
+        <v>0.3919188058258621</v>
+      </c>
+      <c r="T15">
+        <v>0.391918805825862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.66654266666667</v>
+      </c>
+      <c r="H16">
+        <v>40.999628</v>
+      </c>
+      <c r="I16">
+        <v>0.4769456236805791</v>
+      </c>
+      <c r="J16">
+        <v>0.4769456236805791</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02458133333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.073744</v>
+      </c>
+      <c r="O16">
+        <v>0.03208360253122151</v>
+      </c>
+      <c r="P16">
+        <v>0.03208360253122151</v>
+      </c>
+      <c r="Q16">
+        <v>0.3359418408035555</v>
+      </c>
+      <c r="R16">
+        <v>3.023476567232</v>
+      </c>
+      <c r="S16">
+        <v>0.01530213381917325</v>
+      </c>
+      <c r="T16">
+        <v>0.01530213381917325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.66654266666667</v>
+      </c>
+      <c r="H17">
+        <v>40.999628</v>
+      </c>
+      <c r="I17">
+        <v>0.4769456236805791</v>
+      </c>
+      <c r="J17">
+        <v>0.4769456236805791</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03552233333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.106567</v>
+      </c>
+      <c r="O17">
+        <v>0.04636381632328979</v>
+      </c>
+      <c r="P17">
+        <v>0.04636381632328979</v>
+      </c>
+      <c r="Q17">
+        <v>0.4854674841195555</v>
+      </c>
+      <c r="R17">
+        <v>4.369207357076</v>
+      </c>
+      <c r="S17">
+        <v>0.02211301929252326</v>
+      </c>
+      <c r="T17">
+        <v>0.02211301929252326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2464976666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.7394930000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.008602467078296967</v>
+      </c>
+      <c r="J18">
+        <v>0.008602467078296965</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.07648333333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.22945</v>
+      </c>
+      <c r="O18">
+        <v>0.09982619061603352</v>
+      </c>
+      <c r="P18">
+        <v>0.09982619061603351</v>
+      </c>
+      <c r="Q18">
+        <v>0.01885296320555556</v>
+      </c>
+      <c r="R18">
+        <v>0.16967666885</v>
+      </c>
+      <c r="S18">
+        <v>0.0008587515183262261</v>
+      </c>
+      <c r="T18">
+        <v>0.0008587515183262257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2464976666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.7394930000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.008602467078296967</v>
+      </c>
+      <c r="J19">
+        <v>0.008602467078296965</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6295780000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.888734</v>
+      </c>
+      <c r="O19">
+        <v>0.8217263905294552</v>
+      </c>
+      <c r="P19">
+        <v>0.8217263905294551</v>
+      </c>
+      <c r="Q19">
+        <v>0.1551895079846667</v>
+      </c>
+      <c r="R19">
+        <v>1.396705571862</v>
+      </c>
+      <c r="S19">
+        <v>0.007068874221897435</v>
+      </c>
+      <c r="T19">
+        <v>0.007068874221897432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2464976666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.7394930000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.008602467078296967</v>
+      </c>
+      <c r="J20">
+        <v>0.008602467078296965</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02458133333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.073744</v>
+      </c>
+      <c r="O20">
+        <v>0.03208360253122151</v>
+      </c>
+      <c r="P20">
+        <v>0.03208360253122151</v>
+      </c>
+      <c r="Q20">
+        <v>0.006059241310222223</v>
+      </c>
+      <c r="R20">
+        <v>0.05453317179200001</v>
+      </c>
+      <c r="S20">
+        <v>0.0002759981345279983</v>
+      </c>
+      <c r="T20">
+        <v>0.0002759981345279982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2464976666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.7394930000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.008602467078296967</v>
+      </c>
+      <c r="J21">
+        <v>0.008602467078296965</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.03552233333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.106567</v>
+      </c>
+      <c r="O21">
+        <v>0.04636381632328979</v>
+      </c>
+      <c r="P21">
+        <v>0.04636381632328979</v>
+      </c>
+      <c r="Q21">
+        <v>0.008756172281222222</v>
+      </c>
+      <c r="R21">
+        <v>0.07880555053100001</v>
+      </c>
+      <c r="S21">
+        <v>0.000398843203545308</v>
+      </c>
+      <c r="T21">
+        <v>0.0003988432035453079</v>
       </c>
     </row>
   </sheetData>
